--- a/FALL 19/CSE 208/sec2_results.xlsx
+++ b/FALL 19/CSE 208/sec2_results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -142,13 +142,19 @@
   </si>
   <si>
     <t>Problem 4</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Grade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +182,12 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,6 +222,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,21 +527,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
-    <col min="3" max="6" width="14.7109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="8" width="14.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,8 +560,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>153014012</v>
       </c>
@@ -568,8 +587,16 @@
         <f>C2+D2+E2</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="6">
+        <f>(F2/20)*100</f>
+        <v>50</v>
+      </c>
+      <c r="H2" s="3" t="str">
+        <f>IF(G2&gt;94,"A+",IF(G2&gt;84,"A",IF(G2&gt;79,"A-",IF(G2&gt;74,"B+",IF(G2&gt;69,"B",IF(G2&gt;64,"B-",IF(G2&gt;59,"C+",IF(G2&gt;54,"C",IF(G2&gt;49,"D","F")))))))))</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>171014081</v>
       </c>
@@ -583,8 +610,16 @@
         <f t="shared" ref="F3:F36" si="0">C3+D3+E3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G36" si="1">(F3/20)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <f t="shared" ref="H3:H36" si="2">IF(G3&gt;94,"A+",IF(G3&gt;84,"A",IF(G3&gt;79,"A-",IF(G3&gt;74,"B+",IF(G3&gt;69,"B",IF(G3&gt;64,"B-",IF(G3&gt;59,"C+",IF(G3&gt;54,"C",IF(G3&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>173014009</v>
       </c>
@@ -604,8 +639,16 @@
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="6">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>173014029</v>
       </c>
@@ -625,8 +668,16 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="6">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>181014002</v>
       </c>
@@ -646,8 +697,16 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>181014008</v>
       </c>
@@ -661,8 +720,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>181014025</v>
       </c>
@@ -676,8 +743,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>181014032</v>
       </c>
@@ -691,8 +766,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>181014057</v>
       </c>
@@ -706,8 +789,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>181014060</v>
       </c>
@@ -727,8 +818,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>181014131</v>
       </c>
@@ -742,8 +841,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>182014030</v>
       </c>
@@ -757,8 +864,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>182014052</v>
       </c>
@@ -778,8 +893,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>182014055</v>
       </c>
@@ -799,8 +922,16 @@
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>182014061</v>
       </c>
@@ -814,8 +945,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>182014069</v>
       </c>
@@ -835,8 +974,16 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>182014071</v>
       </c>
@@ -856,8 +1003,16 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="6">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>B-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>183014002</v>
       </c>
@@ -877,8 +1032,16 @@
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="6">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>183014004</v>
       </c>
@@ -898,8 +1061,16 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="6">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>183014007</v>
       </c>
@@ -919,8 +1090,16 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>183014009</v>
       </c>
@@ -934,8 +1113,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>183014012</v>
       </c>
@@ -955,8 +1142,16 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>183014014</v>
       </c>
@@ -976,8 +1171,16 @@
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="6">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>183014017</v>
       </c>
@@ -997,8 +1200,16 @@
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="6">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>183014024</v>
       </c>
@@ -1018,8 +1229,16 @@
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="6">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>183014029</v>
       </c>
@@ -1033,8 +1252,16 @@
         <f>C27+D27+E27</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>183014031</v>
       </c>
@@ -1054,8 +1281,16 @@
         <f>C28+D28+E28</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>183014035</v>
       </c>
@@ -1075,8 +1310,16 @@
         <f>C29+D29+E29</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="6">
+        <f t="shared" si="1"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="H29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>183014046</v>
       </c>
@@ -1096,8 +1339,16 @@
         <f>C30+D30+E30</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="6">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="H30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>B-</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>183014050</v>
       </c>
@@ -1117,8 +1368,16 @@
         <f>C31+D31+E31</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>183014052</v>
       </c>
@@ -1132,8 +1391,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>183014056</v>
       </c>
@@ -1153,8 +1420,16 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>183014057</v>
       </c>
@@ -1174,8 +1449,16 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="6">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="H34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>183014063</v>
       </c>
@@ -1195,8 +1478,16 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>183014073</v>
       </c>
@@ -1215,6 +1506,14 @@
       <c r="F36" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
       </c>
     </row>
   </sheetData>
@@ -1225,20 +1524,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="7" width="14.7109375" customWidth="1"/>
+    <col min="3" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,8 +1560,14 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>153014012</v>
       </c>
@@ -1280,8 +1586,16 @@
         <f>C2+D2+E2+F2</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="6">
+        <f>(G2/20)*100</f>
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f>IF(H2&gt;94,"A+",IF(H2&gt;84,"A",IF(H2&gt;79,"A-",IF(H2&gt;74,"B+",IF(H2&gt;69,"B",IF(H2&gt;64,"B-",IF(H2&gt;59,"C+",IF(H2&gt;54,"C",IF(H2&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>171014081</v>
       </c>
@@ -1296,8 +1610,16 @@
         <f t="shared" ref="G3:G36" si="0">C3+D3+E3+F3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H36" si="1">(G3/20)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f t="shared" ref="I3:I36" si="2">IF(H3&gt;94,"A+",IF(H3&gt;84,"A",IF(H3&gt;79,"A-",IF(H3&gt;74,"B+",IF(H3&gt;69,"B",IF(H3&gt;64,"B-",IF(H3&gt;59,"C+",IF(H3&gt;54,"C",IF(H3&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>173014009</v>
       </c>
@@ -1316,8 +1638,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>173014029</v>
       </c>
@@ -1338,8 +1668,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>181014002</v>
       </c>
@@ -1360,8 +1698,16 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>181014008</v>
       </c>
@@ -1382,8 +1728,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>181014025</v>
       </c>
@@ -1404,8 +1758,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>181014032</v>
       </c>
@@ -1422,8 +1784,16 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>181014057</v>
       </c>
@@ -1444,8 +1814,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>181014060</v>
       </c>
@@ -1464,8 +1842,16 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>181014131</v>
       </c>
@@ -1484,8 +1870,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>182014030</v>
       </c>
@@ -1504,8 +1898,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>182014052</v>
       </c>
@@ -1524,8 +1926,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>182014055</v>
       </c>
@@ -1546,8 +1956,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>182014061</v>
       </c>
@@ -1568,8 +1986,16 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>182014069</v>
       </c>
@@ -1588,8 +2014,16 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>182014071</v>
       </c>
@@ -1608,8 +2042,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>183014002</v>
       </c>
@@ -1632,8 +2074,16 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>183014004</v>
       </c>
@@ -1652,8 +2102,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>183014007</v>
       </c>
@@ -1672,8 +2130,16 @@
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="6">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>183014009</v>
       </c>
@@ -1692,8 +2158,16 @@
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="6">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>183014012</v>
       </c>
@@ -1714,8 +2188,16 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="6">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>183014014</v>
       </c>
@@ -1736,8 +2218,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>183014017</v>
       </c>
@@ -1756,8 +2246,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="6">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>183014024</v>
       </c>
@@ -1776,8 +2274,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>183014029</v>
       </c>
@@ -1796,8 +2302,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>183014031</v>
       </c>
@@ -1818,8 +2332,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>183014035</v>
       </c>
@@ -1840,8 +2362,16 @@
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="6">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>183014046</v>
       </c>
@@ -1862,8 +2392,16 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="6">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="I30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>183014050</v>
       </c>
@@ -1882,8 +2420,16 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="6">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>183014052</v>
       </c>
@@ -1904,8 +2450,16 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="6">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>183014056</v>
       </c>
@@ -1926,8 +2480,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>183014057</v>
       </c>
@@ -1946,8 +2508,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>183014063</v>
       </c>
@@ -1968,8 +2538,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>183014073</v>
       </c>
@@ -1988,9 +2566,18 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
+      <c r="H36" s="6">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="I36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
